--- a/testLaundry/bin/Debug/net8.0/Orders.xlsx
+++ b/testLaundry/bin/Debug/net8.0/Orders.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Orders" sheetId="1" r:id="rId1"/>
+    <sheet name="Orders" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -35,22 +35,220 @@
     <t>Wash</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>123-456-7890</t>
-  </si>
-  <si>
-    <t>Bedding</t>
+    <t>Client 1</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Shirts</t>
   </si>
   <si>
     <t>White</t>
   </si>
   <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Delicate</t>
+  </si>
+  <si>
+    <t>Client 2</t>
+  </si>
+  <si>
+    <t>2345678901</t>
+  </si>
+  <si>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Heavy</t>
+  </si>
+  <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>Client 3</t>
+  </si>
+  <si>
+    <t>3456789012</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Client 4</t>
+  </si>
+  <si>
+    <t>4567890123</t>
+  </si>
+  <si>
+    <t>Towels</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Client 5</t>
+  </si>
+  <si>
+    <t>5678901234</t>
+  </si>
+  <si>
+    <t>Bed Sheets</t>
+  </si>
+  <si>
+    <t>Client 6</t>
+  </si>
+  <si>
+    <t>6789012345</t>
+  </si>
+  <si>
+    <t>Jackets</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Client 7</t>
+  </si>
+  <si>
+    <t>7890123456</t>
+  </si>
+  <si>
+    <t>Dresses</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Client 8</t>
+  </si>
+  <si>
+    <t>8901234567</t>
+  </si>
+  <si>
+    <t>Pillowcases</t>
+  </si>
+  <si>
+    <t>Client 9</t>
+  </si>
+  <si>
+    <t>9012345678</t>
+  </si>
+  <si>
+    <t>Underwear</t>
+  </si>
+  <si>
+    <t>Client 10</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>Blouses</t>
+  </si>
+  <si>
+    <t>Client 11</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>Client 12</t>
+  </si>
+  <si>
+    <t>8765432109</t>
+  </si>
+  <si>
+    <t>T-shirts</t>
+  </si>
+  <si>
+    <t>Client 13</t>
+  </si>
+  <si>
+    <t>7654321098</t>
+  </si>
+  <si>
+    <t>Sweaters</t>
+  </si>
+  <si>
+    <t>Client 14</t>
+  </si>
+  <si>
+    <t>6543210987</t>
+  </si>
+  <si>
+    <t>Shorts</t>
+  </si>
+  <si>
+    <t>Client 15</t>
+  </si>
+  <si>
+    <t>5432109876</t>
+  </si>
+  <si>
+    <t>Skirts</t>
+  </si>
+  <si>
+    <t>Client 16</t>
+  </si>
+  <si>
+    <t>4321098765</t>
+  </si>
+  <si>
+    <t>Tablecloths</t>
+  </si>
+  <si>
+    <t>Client 17</t>
+  </si>
+  <si>
+    <t>3210987654</t>
+  </si>
+  <si>
+    <t>Suits</t>
+  </si>
+  <si>
+    <t>Client 18</t>
+  </si>
+  <si>
+    <t>2109876543</t>
+  </si>
+  <si>
+    <t>Sweatpants</t>
+  </si>
+  <si>
+    <t>Client 19</t>
+  </si>
+  <si>
+    <t>1098765432</t>
+  </si>
+  <si>
+    <t>Scarves</t>
+  </si>
+  <si>
+    <t>Client 20</t>
+  </si>
+  <si>
+    <t>9876543211</t>
+  </si>
+  <si>
+    <t>Hoodies</t>
   </si>
 </sst>
 </file>
@@ -97,7 +295,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -137,7 +335,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
@@ -147,6 +345,443 @@
       </c>
       <c r="G2" s="0" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="0">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="0">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="0">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="0">
+        <v>3</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="0">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="0">
+        <v>4</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="0">
+        <v>7</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="0">
+        <v>3</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="0">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="0">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="0">
+        <v>3</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="0">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="0">
+        <v>5</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
